--- a/model_exports/labels/2.0_False_False_7_4.xlsx
+++ b/model_exports/labels/2.0_False_False_7_4.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-536414184204800001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,20 +466,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-536957598252417024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,20 +505,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,20 +544,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,24 +596,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,46 +622,46 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,50 +674,50 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,20 +791,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,33 +830,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -882,46 +882,46 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,11 +934,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -947,24 +947,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,20 +986,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,20 +1051,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,33 +1129,33 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,24 +1181,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,33 +1207,33 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,33 +1246,33 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,33 +1285,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,24 +1337,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,59 +1428,59 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,46 +1493,46 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,24 +1545,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,46 +1571,46 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,20 +1636,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,111 +1753,111 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,50 +1870,50 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-585851418843615232</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,24 +1935,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -1961,20 +1961,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,24 +1987,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,37 +2052,37 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,63 +2091,63 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,20 +2156,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2195,24 +2195,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,63 +2234,63 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,46 +2364,46 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,46 +2429,46 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,59 +2481,59 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,20 +2546,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,50 +2572,50 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,24 +2637,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2663,33 +2663,33 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,33 +2702,33 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,11 +2741,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2754,11 +2754,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2767,24 +2767,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,59 +2806,59 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,33 +2884,33 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,72 +2923,72 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3040,24 +3040,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,20 +3066,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,37 +3092,37 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -3131,33 +3131,33 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,37 +3170,37 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,59 +3222,59 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,46 +3287,46 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,11 +3378,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,72 +3443,72 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,89 +3521,89 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,33 +3638,33 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,20 +3677,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,20 +3703,20 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,59 +3781,59 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,24 +3846,24 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3872,24 +3872,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,46 +3911,46 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,11 +3976,11 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -4002,33 +4002,33 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,20 +4041,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,20 +4080,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,20 +4106,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,20 +4171,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,24 +4197,24 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,50 +4236,50 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -4288,20 +4288,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,20 +4353,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,24 +4379,24 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,20 +4418,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,20 +4470,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,24 +4496,24 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -4522,11 +4522,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,11 +4574,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -4587,98 +4587,98 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,59 +4691,59 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,24 +4756,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4795,20 +4795,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,24 +4821,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4847,37 +4847,37 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4886,37 +4886,37 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4925,20 +4925,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,20 +4990,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,7 +5029,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,20 +5042,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,11 +5068,11 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -5081,20 +5081,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B358" t="n">
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,20 +5120,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,7 +5146,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,20 +5172,20 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,72 +5198,72 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,33 +5302,33 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,20 +5341,20 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,24 +5380,24 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,11 +5406,11 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -5419,46 +5419,46 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,33 +5497,33 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,72 +5536,72 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,46 +5666,46 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,7 +5718,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,7 +5731,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,20 +5744,20 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,24 +5770,24 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,37 +5796,37 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,50 +5861,50 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B418" t="n">
         <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5913,33 +5913,33 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B422" t="n">
         <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B423" t="n">
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,20 +5952,20 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,24 +5978,24 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -6004,20 +6004,20 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,20 +6030,20 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,46 +6056,46 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,33 +6108,33 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,37 +6147,37 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,46 +6186,46 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,46 +6238,46 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,20 +6290,20 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,11 +6316,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,24 +6355,24 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -6381,11 +6381,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6394,24 +6394,24 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,137 +6446,137 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,20 +6602,20 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,11 +6628,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -6641,37 +6641,37 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>0</v>
@@ -6680,37 +6680,37 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
         <v>0</v>
@@ -6719,11 +6719,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -6732,11 +6732,11 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -6745,50 +6745,50 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
         <v>0</v>
@@ -6797,59 +6797,59 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,50 +6862,50 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
         <v>0</v>
@@ -6914,11 +6914,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,24 +6953,24 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
         <v>0</v>
@@ -6979,20 +6979,20 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,20 +7005,20 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,46 +7031,46 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,24 +7096,24 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,33 +7122,33 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,50 +7161,50 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,111 +7226,111 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,24 +7343,24 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
         <v>0</v>
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,11 +7382,11 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7395,20 +7395,20 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,33 +7460,33 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,46 +7499,46 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,37 +7577,37 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
         <v>1</v>
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,59 +7655,59 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,11 +7733,11 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
         <v>1</v>
@@ -7746,46 +7746,46 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,33 +7798,33 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,11 +7863,11 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
         <v>0</v>
@@ -7876,11 +7876,11 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C573" t="n">
         <v>0</v>
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,11 +7902,11 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -7915,37 +7915,37 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,24 +7980,24 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
         <v>1</v>
@@ -8006,20 +8006,20 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,20 +8032,20 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,33 +8058,33 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,24 +8136,24 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
         <v>0</v>
@@ -8162,20 +8162,20 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,24 +8188,24 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
         <v>0</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,33 +8227,33 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,89 +8279,89 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
         <v>1</v>
@@ -8370,11 +8370,11 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
         <v>1</v>
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,24 +8448,24 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,102 +8487,102 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B621" t="n">
         <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B625" t="n">
         <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -8591,11 +8591,11 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,24 +8643,24 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,11 +8682,11 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
         <v>1</v>
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B637" t="n">
         <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,11 +8734,11 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,46 +8773,46 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B644" t="n">
         <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,20 +8838,20 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B649" t="n">
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,11 +8903,11 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
         <v>0</v>
@@ -8916,33 +8916,33 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,24 +8955,24 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B656" t="n">
         <v>0</v>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
         <v>1</v>
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,11 +9007,11 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
         <v>1</v>
@@ -9020,20 +9020,20 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,59 +9046,59 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,20 +9163,20 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,11 +9189,11 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,11 +9254,11 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -9267,20 +9267,20 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,59 +9293,59 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,11 +9384,11 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -9397,20 +9397,20 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,20 +9501,20 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,33 +9540,33 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,11 +9592,11 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -9605,33 +9605,33 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,20 +9657,20 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,11 +9683,11 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,11 +9696,11 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,24 +9709,24 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B714" t="n">
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,20 +9735,20 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,40 +9813,40 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B722" t="n">
         <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B723" t="n">
         <v>1</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B724" t="n">
         <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,11 +9891,11 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C728" t="n">
         <v>1</v>
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,20 +9943,20 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-816256005461987328</t>
+          <t>t-935334721793306624</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-833912149630078976</t>
+          <t>t-935382314166693889</t>
         </is>
       </c>
       <c r="B733" t="n">
